--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxadr-Cxadr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxadr-Cxadr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.748098</v>
+        <v>4.6184515</v>
       </c>
       <c r="H2">
-        <v>7.496195999999999</v>
+        <v>9.236903</v>
       </c>
       <c r="I2">
-        <v>0.3204615780062858</v>
+        <v>0.416608412890199</v>
       </c>
       <c r="J2">
-        <v>0.2684443982247036</v>
+        <v>0.3655725219873185</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.748098</v>
+        <v>4.6184515</v>
       </c>
       <c r="N2">
-        <v>7.496195999999999</v>
+        <v>9.236903</v>
       </c>
       <c r="O2">
-        <v>0.3204615780062858</v>
+        <v>0.416608412890199</v>
       </c>
       <c r="P2">
-        <v>0.2684443982247036</v>
+        <v>0.3655725219873185</v>
       </c>
       <c r="Q2">
-        <v>14.048238617604</v>
+        <v>21.33009425785225</v>
       </c>
       <c r="R2">
-        <v>56.19295447041599</v>
+        <v>85.320377031409</v>
       </c>
       <c r="S2">
-        <v>0.1026956229782788</v>
+        <v>0.1735625696908905</v>
       </c>
       <c r="T2">
-        <v>0.07206239493822326</v>
+        <v>0.1336432688321685</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.748098</v>
+        <v>4.6184515</v>
       </c>
       <c r="H3">
-        <v>7.496195999999999</v>
+        <v>9.236903</v>
       </c>
       <c r="I3">
-        <v>0.3204615780062858</v>
+        <v>0.416608412890199</v>
       </c>
       <c r="J3">
-        <v>0.2684443982247036</v>
+        <v>0.3655725219873185</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +623,22 @@
         <v>2.614922</v>
       </c>
       <c r="O3">
-        <v>0.07452509072453574</v>
+        <v>0.07862653418587484</v>
       </c>
       <c r="P3">
-        <v>0.09364231707582599</v>
+        <v>0.1034917905211436</v>
       </c>
       <c r="Q3">
-        <v>3.266994639452</v>
+        <v>4.025630144427667</v>
       </c>
       <c r="R3">
-        <v>19.601967836712</v>
+        <v>24.153780866566</v>
       </c>
       <c r="S3">
-        <v>0.02388242817464633</v>
+        <v>0.03275647561823429</v>
       </c>
       <c r="T3">
-        <v>0.025137755455787</v>
+        <v>0.03783375486579774</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.748098</v>
+        <v>4.6184515</v>
       </c>
       <c r="H4">
-        <v>7.496195999999999</v>
+        <v>9.236903</v>
       </c>
       <c r="I4">
-        <v>0.3204615780062858</v>
+        <v>0.416608412890199</v>
       </c>
       <c r="J4">
-        <v>0.2684443982247036</v>
+        <v>0.3655725219873185</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2322326666666667</v>
+        <v>3.372098</v>
       </c>
       <c r="N4">
-        <v>0.696698</v>
+        <v>6.744196000000001</v>
       </c>
       <c r="O4">
-        <v>0.0198558433703195</v>
+        <v>0.3041808268182992</v>
       </c>
       <c r="P4">
-        <v>0.02494927765420682</v>
+        <v>0.2669176823115698</v>
       </c>
       <c r="Q4">
-        <v>0.8704307934679999</v>
+        <v>15.573871066247</v>
       </c>
       <c r="R4">
-        <v>5.222584760808</v>
+        <v>62.295484264988</v>
       </c>
       <c r="S4">
-        <v>0.006363034899098234</v>
+        <v>0.1267242914924001</v>
       </c>
       <c r="T4">
-        <v>0.006697493826024596</v>
+        <v>0.09757777028565046</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.748098</v>
+        <v>4.6184515</v>
       </c>
       <c r="H5">
-        <v>7.496195999999999</v>
+        <v>9.236903</v>
       </c>
       <c r="I5">
-        <v>0.3204615780062858</v>
+        <v>0.416608412890199</v>
       </c>
       <c r="J5">
-        <v>0.2684443982247036</v>
+        <v>0.3655725219873185</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.415133</v>
+        <v>2.003533333333333</v>
       </c>
       <c r="N5">
-        <v>6.830266</v>
+        <v>6.0106</v>
       </c>
       <c r="O5">
-        <v>0.2919931416631424</v>
+        <v>0.1807291561192339</v>
       </c>
       <c r="P5">
-        <v>0.2445969457154874</v>
+        <v>0.2378838665575439</v>
       </c>
       <c r="Q5">
-        <v>12.800253167034</v>
+        <v>9.253221528633333</v>
       </c>
       <c r="R5">
-        <v>51.20101266813599</v>
+        <v>55.5193291718</v>
       </c>
       <c r="S5">
-        <v>0.09357258294438357</v>
+        <v>0.07529328689381902</v>
       </c>
       <c r="T5">
-        <v>0.0656606799001945</v>
+        <v>0.08696380503753606</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +770,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -788,108 +785,108 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.748098</v>
+        <v>4.6184515</v>
       </c>
       <c r="H6">
-        <v>7.496195999999999</v>
+        <v>9.236903</v>
       </c>
       <c r="I6">
-        <v>0.3204615780062858</v>
+        <v>0.416608412890199</v>
       </c>
       <c r="J6">
-        <v>0.2684443982247036</v>
+        <v>0.3655725219873185</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>3.040834666666667</v>
+        <v>0.22011</v>
       </c>
       <c r="N6">
-        <v>9.122504000000001</v>
+        <v>0.66033</v>
       </c>
       <c r="O6">
-        <v>0.25999071415321</v>
+        <v>0.01985506998639299</v>
       </c>
       <c r="P6">
-        <v>0.3266837068537765</v>
+        <v>0.02613413862242421</v>
       </c>
       <c r="Q6">
-        <v>11.397346332464</v>
+        <v>1.016567359665</v>
       </c>
       <c r="R6">
-        <v>68.38407799478401</v>
+        <v>6.09940415799</v>
       </c>
       <c r="S6">
-        <v>0.08331703452451886</v>
+        <v>0.008271789194855009</v>
       </c>
       <c r="T6">
-        <v>0.08769641109617753</v>
+        <v>0.009553922966165805</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>3.748098</v>
+        <v>0.8716406666666666</v>
       </c>
       <c r="H7">
-        <v>7.496195999999999</v>
+        <v>2.614922</v>
       </c>
       <c r="I7">
-        <v>0.3204615780062858</v>
+        <v>0.07862653418587484</v>
       </c>
       <c r="J7">
-        <v>0.2684443982247036</v>
+        <v>0.1034917905211436</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3879966666666667</v>
+        <v>4.6184515</v>
       </c>
       <c r="N7">
-        <v>1.16399</v>
+        <v>9.236903</v>
       </c>
       <c r="O7">
-        <v>0.03317363208250661</v>
+        <v>0.416608412890199</v>
       </c>
       <c r="P7">
-        <v>0.04168335447599993</v>
+        <v>0.3655725219873185</v>
       </c>
       <c r="Q7">
-        <v>1.45424953034</v>
+        <v>4.025630144427667</v>
       </c>
       <c r="R7">
-        <v>8.72549718204</v>
+        <v>24.153780866566</v>
       </c>
       <c r="S7">
-        <v>0.01063087448536002</v>
+        <v>0.03275647561823429</v>
       </c>
       <c r="T7">
-        <v>0.01118966300829681</v>
+        <v>0.03783375486579774</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -918,40 +915,40 @@
         <v>2.614922</v>
       </c>
       <c r="I8">
-        <v>0.07452509072453574</v>
+        <v>0.07862653418587484</v>
       </c>
       <c r="J8">
-        <v>0.09364231707582599</v>
+        <v>0.1034917905211436</v>
       </c>
       <c r="K8">
         <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>3.748098</v>
+        <v>0.8716406666666666</v>
       </c>
       <c r="N8">
-        <v>7.496195999999999</v>
+        <v>2.614922</v>
       </c>
       <c r="O8">
-        <v>0.3204615780062858</v>
+        <v>0.07862653418587484</v>
       </c>
       <c r="P8">
-        <v>0.2684443982247036</v>
+        <v>0.1034917905211436</v>
       </c>
       <c r="Q8">
-        <v>3.266994639452</v>
+        <v>0.7597574517871111</v>
       </c>
       <c r="R8">
-        <v>19.601967836712</v>
+        <v>6.837817066084</v>
       </c>
       <c r="S8">
-        <v>0.02388242817464633</v>
+        <v>0.006182131878082545</v>
       </c>
       <c r="T8">
-        <v>0.025137755455787</v>
+        <v>0.01071055070527227</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -980,40 +977,40 @@
         <v>2.614922</v>
       </c>
       <c r="I9">
-        <v>0.07452509072453574</v>
+        <v>0.07862653418587484</v>
       </c>
       <c r="J9">
-        <v>0.09364231707582599</v>
+        <v>0.1034917905211436</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.8716406666666666</v>
+        <v>3.372098</v>
       </c>
       <c r="N9">
-        <v>2.614922</v>
+        <v>6.744196000000001</v>
       </c>
       <c r="O9">
-        <v>0.07452509072453574</v>
+        <v>0.3041808268182992</v>
       </c>
       <c r="P9">
-        <v>0.09364231707582599</v>
+        <v>0.2669176823115698</v>
       </c>
       <c r="Q9">
-        <v>0.7597574517871111</v>
+        <v>2.939257748785333</v>
       </c>
       <c r="R9">
-        <v>6.837817066084</v>
+        <v>17.635546492712</v>
       </c>
       <c r="S9">
-        <v>0.005553989147500282</v>
+        <v>0.02391668417851668</v>
       </c>
       <c r="T9">
-        <v>0.008768883547329531</v>
+        <v>0.02762378886417814</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1018,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1042,40 +1039,40 @@
         <v>2.614922</v>
       </c>
       <c r="I10">
-        <v>0.07452509072453574</v>
+        <v>0.07862653418587484</v>
       </c>
       <c r="J10">
-        <v>0.09364231707582599</v>
+        <v>0.1034917905211436</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2322326666666667</v>
+        <v>2.003533333333333</v>
       </c>
       <c r="N10">
-        <v>0.696698</v>
+        <v>6.0106</v>
       </c>
       <c r="O10">
-        <v>0.0198558433703195</v>
+        <v>0.1807291561192339</v>
       </c>
       <c r="P10">
-        <v>0.02494927765420682</v>
+        <v>0.2378838665575439</v>
       </c>
       <c r="Q10">
-        <v>0.2024234363951111</v>
+        <v>1.746361130355556</v>
       </c>
       <c r="R10">
-        <v>1.821810927556</v>
+        <v>15.7172501732</v>
       </c>
       <c r="S10">
-        <v>0.001479758528585232</v>
+        <v>0.01421010717199326</v>
       </c>
       <c r="T10">
-        <v>0.002336308168908055</v>
+        <v>0.02461902728613301</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1080,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1104,134 +1101,134 @@
         <v>2.614922</v>
       </c>
       <c r="I11">
-        <v>0.07452509072453574</v>
+        <v>0.07862653418587484</v>
       </c>
       <c r="J11">
-        <v>0.09364231707582599</v>
+        <v>0.1034917905211436</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>3.415133</v>
+        <v>0.22011</v>
       </c>
       <c r="N11">
-        <v>6.830266</v>
+        <v>0.66033</v>
       </c>
       <c r="O11">
-        <v>0.2919931416631424</v>
+        <v>0.01985506998639299</v>
       </c>
       <c r="P11">
-        <v>0.2445969457154874</v>
+        <v>0.02613413862242421</v>
       </c>
       <c r="Q11">
-        <v>2.976768804875333</v>
+        <v>0.19185682714</v>
       </c>
       <c r="R11">
-        <v>17.860612829252</v>
+        <v>1.72671144426</v>
       </c>
       <c r="S11">
-        <v>0.02176081537338791</v>
+        <v>0.001561135339048066</v>
       </c>
       <c r="T11">
-        <v>0.02290462474646826</v>
+        <v>0.002704668799762455</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8716406666666666</v>
+        <v>3.372098</v>
       </c>
       <c r="H12">
-        <v>2.614922</v>
+        <v>6.744196000000001</v>
       </c>
       <c r="I12">
-        <v>0.07452509072453574</v>
+        <v>0.3041808268182992</v>
       </c>
       <c r="J12">
-        <v>0.09364231707582599</v>
+        <v>0.2669176823115698</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.040834666666667</v>
+        <v>4.6184515</v>
       </c>
       <c r="N12">
-        <v>9.122504000000001</v>
+        <v>9.236903</v>
       </c>
       <c r="O12">
-        <v>0.25999071415321</v>
+        <v>0.416608412890199</v>
       </c>
       <c r="P12">
-        <v>0.3266837068537765</v>
+        <v>0.3655725219873185</v>
       </c>
       <c r="Q12">
-        <v>2.650515156076445</v>
+        <v>15.573871066247</v>
       </c>
       <c r="R12">
-        <v>23.854636404688</v>
+        <v>62.295484264988</v>
       </c>
       <c r="S12">
-        <v>0.01937583155980481</v>
+        <v>0.1267242914924001</v>
       </c>
       <c r="T12">
-        <v>0.03059141926070753</v>
+        <v>0.09757777028565046</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8716406666666666</v>
+        <v>3.372098</v>
       </c>
       <c r="H13">
-        <v>2.614922</v>
+        <v>6.744196000000001</v>
       </c>
       <c r="I13">
-        <v>0.07452509072453574</v>
+        <v>0.3041808268182992</v>
       </c>
       <c r="J13">
-        <v>0.09364231707582599</v>
+        <v>0.2669176823115698</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.3879966666666667</v>
+        <v>0.8716406666666666</v>
       </c>
       <c r="N13">
-        <v>1.16399</v>
+        <v>2.614922</v>
       </c>
       <c r="O13">
-        <v>0.03317363208250661</v>
+        <v>0.07862653418587484</v>
       </c>
       <c r="P13">
-        <v>0.04168335447599993</v>
+        <v>0.1034917905211436</v>
       </c>
       <c r="Q13">
-        <v>0.3381936731977778</v>
+        <v>2.939257748785333</v>
       </c>
       <c r="R13">
-        <v>3.04374305878</v>
+        <v>17.635546492712</v>
       </c>
       <c r="S13">
-        <v>0.002472267940611175</v>
+        <v>0.02391668417851668</v>
       </c>
       <c r="T13">
-        <v>0.003903325896625636</v>
+        <v>0.02762378886417814</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1266,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2322326666666667</v>
+        <v>3.372098</v>
       </c>
       <c r="H14">
-        <v>0.696698</v>
+        <v>6.744196000000001</v>
       </c>
       <c r="I14">
-        <v>0.0198558433703195</v>
+        <v>0.3041808268182992</v>
       </c>
       <c r="J14">
-        <v>0.02494927765420682</v>
+        <v>0.2669176823115698</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.748098</v>
+        <v>3.372098</v>
       </c>
       <c r="N14">
-        <v>7.496195999999999</v>
+        <v>6.744196000000001</v>
       </c>
       <c r="O14">
-        <v>0.3204615780062858</v>
+        <v>0.3041808268182992</v>
       </c>
       <c r="P14">
-        <v>0.2684443982247036</v>
+        <v>0.2669176823115698</v>
       </c>
       <c r="Q14">
-        <v>0.8704307934679999</v>
+        <v>11.371044921604</v>
       </c>
       <c r="R14">
-        <v>5.222584760808</v>
+        <v>45.48417968641601</v>
       </c>
       <c r="S14">
-        <v>0.006363034899098234</v>
+        <v>0.09252597540386415</v>
       </c>
       <c r="T14">
-        <v>0.006697493826024596</v>
+        <v>0.07124504913058011</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1328,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2322326666666667</v>
+        <v>3.372098</v>
       </c>
       <c r="H15">
-        <v>0.696698</v>
+        <v>6.744196000000001</v>
       </c>
       <c r="I15">
-        <v>0.0198558433703195</v>
+        <v>0.3041808268182992</v>
       </c>
       <c r="J15">
-        <v>0.02494927765420682</v>
+        <v>0.2669176823115698</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.8716406666666666</v>
+        <v>2.003533333333333</v>
       </c>
       <c r="N15">
-        <v>2.614922</v>
+        <v>6.0106</v>
       </c>
       <c r="O15">
-        <v>0.07452509072453574</v>
+        <v>0.1807291561192339</v>
       </c>
       <c r="P15">
-        <v>0.09364231707582599</v>
+        <v>0.2378838665575439</v>
       </c>
       <c r="Q15">
-        <v>0.2024234363951111</v>
+        <v>6.756110746266668</v>
       </c>
       <c r="R15">
-        <v>1.821810927556</v>
+        <v>40.53666447760001</v>
       </c>
       <c r="S15">
-        <v>0.001479758528585232</v>
+        <v>0.05497434413852205</v>
       </c>
       <c r="T15">
-        <v>0.002336308168908055</v>
+        <v>0.06349541032085437</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1390,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2322326666666667</v>
+        <v>3.372098</v>
       </c>
       <c r="H16">
-        <v>0.696698</v>
+        <v>6.744196000000001</v>
       </c>
       <c r="I16">
-        <v>0.0198558433703195</v>
+        <v>0.3041808268182992</v>
       </c>
       <c r="J16">
-        <v>0.02494927765420682</v>
+        <v>0.2669176823115698</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,60 +1423,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.2322326666666667</v>
+        <v>0.22011</v>
       </c>
       <c r="N16">
-        <v>0.696698</v>
+        <v>0.66033</v>
       </c>
       <c r="O16">
-        <v>0.0198558433703195</v>
+        <v>0.01985506998639299</v>
       </c>
       <c r="P16">
-        <v>0.02494927765420682</v>
+        <v>0.02613413862242421</v>
       </c>
       <c r="Q16">
-        <v>0.05393201146711112</v>
+        <v>0.7422324907800001</v>
       </c>
       <c r="R16">
-        <v>0.4853881032040001</v>
+        <v>4.45339494468</v>
       </c>
       <c r="S16">
-        <v>0.0003942545159466608</v>
+        <v>0.006039531604996217</v>
       </c>
       <c r="T16">
-        <v>0.0006224664554667039</v>
+        <v>0.006975663710306753</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2322326666666667</v>
+        <v>2.003533333333333</v>
       </c>
       <c r="H17">
-        <v>0.696698</v>
+        <v>6.0106</v>
       </c>
       <c r="I17">
-        <v>0.0198558433703195</v>
+        <v>0.1807291561192339</v>
       </c>
       <c r="J17">
-        <v>0.02494927765420682</v>
+        <v>0.2378838665575439</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,152 +1485,152 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.415133</v>
+        <v>4.6184515</v>
       </c>
       <c r="N17">
-        <v>6.830266</v>
+        <v>9.236903</v>
       </c>
       <c r="O17">
-        <v>0.2919931416631424</v>
+        <v>0.416608412890199</v>
       </c>
       <c r="P17">
-        <v>0.2445969457154874</v>
+        <v>0.3655725219873185</v>
       </c>
       <c r="Q17">
-        <v>0.7931054436113334</v>
+        <v>9.253221528633333</v>
       </c>
       <c r="R17">
-        <v>4.758632661668</v>
+        <v>55.5193291718</v>
       </c>
       <c r="S17">
-        <v>0.005797770086070869</v>
+        <v>0.07529328689381902</v>
       </c>
       <c r="T17">
-        <v>0.006102517112026648</v>
+        <v>0.08696380503753606</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.003533333333333</v>
+      </c>
+      <c r="H18">
+        <v>6.0106</v>
+      </c>
+      <c r="I18">
+        <v>0.1807291561192339</v>
+      </c>
+      <c r="J18">
+        <v>0.2378838665575439</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G18">
-        <v>0.2322326666666667</v>
-      </c>
-      <c r="H18">
-        <v>0.696698</v>
-      </c>
-      <c r="I18">
-        <v>0.0198558433703195</v>
-      </c>
-      <c r="J18">
-        <v>0.02494927765420682</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
       <c r="M18">
-        <v>3.040834666666667</v>
+        <v>0.8716406666666666</v>
       </c>
       <c r="N18">
-        <v>9.122504000000001</v>
+        <v>2.614922</v>
       </c>
       <c r="O18">
-        <v>0.25999071415321</v>
+        <v>0.07862653418587484</v>
       </c>
       <c r="P18">
-        <v>0.3266837068537765</v>
+        <v>0.1034917905211436</v>
       </c>
       <c r="Q18">
-        <v>0.7061811435324445</v>
+        <v>1.746361130355556</v>
       </c>
       <c r="R18">
-        <v>6.355630291792001</v>
+        <v>15.7172501732</v>
       </c>
       <c r="S18">
-        <v>0.005162334897963647</v>
+        <v>0.01421010717199326</v>
       </c>
       <c r="T18">
-        <v>0.008150522507400379</v>
+        <v>0.02461902728613301</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.2322326666666667</v>
+        <v>2.003533333333333</v>
       </c>
       <c r="H19">
-        <v>0.696698</v>
+        <v>6.0106</v>
       </c>
       <c r="I19">
-        <v>0.0198558433703195</v>
+        <v>0.1807291561192339</v>
       </c>
       <c r="J19">
-        <v>0.02494927765420682</v>
+        <v>0.2378838665575439</v>
       </c>
       <c r="K19">
         <v>2</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3879966666666667</v>
+        <v>3.372098</v>
       </c>
       <c r="N19">
-        <v>1.16399</v>
+        <v>6.744196000000001</v>
       </c>
       <c r="O19">
-        <v>0.03317363208250661</v>
+        <v>0.3041808268182992</v>
       </c>
       <c r="P19">
-        <v>0.04168335447599993</v>
+        <v>0.2669176823115698</v>
       </c>
       <c r="Q19">
-        <v>0.09010550055777779</v>
+        <v>6.756110746266668</v>
       </c>
       <c r="R19">
-        <v>0.8109495050200001</v>
+        <v>40.53666447760001</v>
       </c>
       <c r="S19">
-        <v>0.0006586904426548572</v>
+        <v>0.05497434413852205</v>
       </c>
       <c r="T19">
-        <v>0.001039969584380447</v>
+        <v>0.06349541032085437</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1638,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.415133</v>
+        <v>2.003533333333333</v>
       </c>
       <c r="H20">
-        <v>6.830266</v>
+        <v>6.0106</v>
       </c>
       <c r="I20">
-        <v>0.2919931416631424</v>
+        <v>0.1807291561192339</v>
       </c>
       <c r="J20">
-        <v>0.2445969457154874</v>
+        <v>0.2378838665575439</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.748098</v>
+        <v>2.003533333333333</v>
       </c>
       <c r="N20">
-        <v>7.496195999999999</v>
+        <v>6.0106</v>
       </c>
       <c r="O20">
-        <v>0.3204615780062858</v>
+        <v>0.1807291561192339</v>
       </c>
       <c r="P20">
-        <v>0.2684443982247036</v>
+        <v>0.2378838665575439</v>
       </c>
       <c r="Q20">
-        <v>12.800253167034</v>
+        <v>4.014145817777778</v>
       </c>
       <c r="R20">
-        <v>51.20101266813599</v>
+        <v>36.12731236</v>
       </c>
       <c r="S20">
-        <v>0.09357258294438357</v>
+        <v>0.03266302787157042</v>
       </c>
       <c r="T20">
-        <v>0.0656606799001945</v>
+        <v>0.05658873396836735</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,31 +1700,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.415133</v>
+        <v>2.003533333333333</v>
       </c>
       <c r="H21">
-        <v>6.830266</v>
+        <v>6.0106</v>
       </c>
       <c r="I21">
-        <v>0.2919931416631424</v>
+        <v>0.1807291561192339</v>
       </c>
       <c r="J21">
-        <v>0.2445969457154874</v>
+        <v>0.2378838665575439</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1736,276 +1733,276 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.8716406666666666</v>
+        <v>0.22011</v>
       </c>
       <c r="N21">
-        <v>2.614922</v>
+        <v>0.66033</v>
       </c>
       <c r="O21">
-        <v>0.07452509072453574</v>
+        <v>0.01985506998639299</v>
       </c>
       <c r="P21">
-        <v>0.09364231707582599</v>
+        <v>0.02613413862242421</v>
       </c>
       <c r="Q21">
-        <v>2.976768804875333</v>
+        <v>0.440997722</v>
       </c>
       <c r="R21">
-        <v>17.860612829252</v>
+        <v>3.968979498</v>
       </c>
       <c r="S21">
-        <v>0.02176081537338791</v>
+        <v>0.003588390043329134</v>
       </c>
       <c r="T21">
-        <v>0.02290462474646826</v>
+        <v>0.006216889944653115</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>3.415133</v>
+        <v>0.22011</v>
       </c>
       <c r="H22">
-        <v>6.830266</v>
+        <v>0.66033</v>
       </c>
       <c r="I22">
-        <v>0.2919931416631424</v>
+        <v>0.01985506998639299</v>
       </c>
       <c r="J22">
-        <v>0.2445969457154874</v>
+        <v>0.02613413862242421</v>
       </c>
       <c r="K22">
         <v>2</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2322326666666667</v>
+        <v>4.6184515</v>
       </c>
       <c r="N22">
-        <v>0.696698</v>
+        <v>9.236903</v>
       </c>
       <c r="O22">
-        <v>0.0198558433703195</v>
+        <v>0.416608412890199</v>
       </c>
       <c r="P22">
-        <v>0.02494927765420682</v>
+        <v>0.3655725219873185</v>
       </c>
       <c r="Q22">
-        <v>0.7931054436113334</v>
+        <v>1.016567359665</v>
       </c>
       <c r="R22">
-        <v>4.758632661668</v>
+        <v>6.09940415799</v>
       </c>
       <c r="S22">
-        <v>0.005797770086070869</v>
+        <v>0.008271789194855009</v>
       </c>
       <c r="T22">
-        <v>0.006102517112026648</v>
+        <v>0.009553922966165805</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>3.415133</v>
+        <v>0.22011</v>
       </c>
       <c r="H23">
-        <v>6.830266</v>
+        <v>0.66033</v>
       </c>
       <c r="I23">
-        <v>0.2919931416631424</v>
+        <v>0.01985506998639299</v>
       </c>
       <c r="J23">
-        <v>0.2445969457154874</v>
+        <v>0.02613413862242421</v>
       </c>
       <c r="K23">
         <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>3.415133</v>
+        <v>0.8716406666666666</v>
       </c>
       <c r="N23">
-        <v>6.830266</v>
+        <v>2.614922</v>
       </c>
       <c r="O23">
-        <v>0.2919931416631424</v>
+        <v>0.07862653418587484</v>
       </c>
       <c r="P23">
-        <v>0.2445969457154874</v>
+        <v>0.1034917905211436</v>
       </c>
       <c r="Q23">
-        <v>11.663133407689</v>
+        <v>0.19185682714</v>
       </c>
       <c r="R23">
-        <v>46.652533630756</v>
+        <v>1.72671144426</v>
       </c>
       <c r="S23">
-        <v>0.08525999477831198</v>
+        <v>0.001561135339048066</v>
       </c>
       <c r="T23">
-        <v>0.05982766585334508</v>
+        <v>0.002704668799762455</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>3.415133</v>
+        <v>0.22011</v>
       </c>
       <c r="H24">
-        <v>6.830266</v>
+        <v>0.66033</v>
       </c>
       <c r="I24">
-        <v>0.2919931416631424</v>
+        <v>0.01985506998639299</v>
       </c>
       <c r="J24">
-        <v>0.2445969457154874</v>
+        <v>0.02613413862242421</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.040834666666667</v>
+        <v>3.372098</v>
       </c>
       <c r="N24">
-        <v>9.122504000000001</v>
+        <v>6.744196000000001</v>
       </c>
       <c r="O24">
-        <v>0.25999071415321</v>
+        <v>0.3041808268182992</v>
       </c>
       <c r="P24">
-        <v>0.3266837068537765</v>
+        <v>0.2669176823115698</v>
       </c>
       <c r="Q24">
-        <v>10.38485481767733</v>
+        <v>0.7422324907800001</v>
       </c>
       <c r="R24">
-        <v>62.309128906064</v>
+        <v>4.45339494468</v>
       </c>
       <c r="S24">
-        <v>0.07591550542883982</v>
+        <v>0.006039531604996217</v>
       </c>
       <c r="T24">
-        <v>0.07990583691144737</v>
+        <v>0.006975663710306753</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>3.415133</v>
+        <v>0.22011</v>
       </c>
       <c r="H25">
-        <v>6.830266</v>
+        <v>0.66033</v>
       </c>
       <c r="I25">
-        <v>0.2919931416631424</v>
+        <v>0.01985506998639299</v>
       </c>
       <c r="J25">
-        <v>0.2445969457154874</v>
+        <v>0.02613413862242421</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.3879966666666667</v>
+        <v>2.003533333333333</v>
       </c>
       <c r="N25">
-        <v>1.16399</v>
+        <v>6.0106</v>
       </c>
       <c r="O25">
-        <v>0.03317363208250661</v>
+        <v>0.1807291561192339</v>
       </c>
       <c r="P25">
-        <v>0.04168335447599993</v>
+        <v>0.2378838665575439</v>
       </c>
       <c r="Q25">
-        <v>1.325060220223333</v>
+        <v>0.440997722</v>
       </c>
       <c r="R25">
-        <v>7.950361321340001</v>
+        <v>3.968979498</v>
       </c>
       <c r="S25">
-        <v>0.009686473052148321</v>
+        <v>0.003588390043329134</v>
       </c>
       <c r="T25">
-        <v>0.01019562119200557</v>
+        <v>0.006216889944653115</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2013,743 +2010,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>3.040834666666667</v>
+        <v>0.22011</v>
       </c>
       <c r="H26">
-        <v>9.122504000000001</v>
+        <v>0.66033</v>
       </c>
       <c r="I26">
-        <v>0.25999071415321</v>
+        <v>0.01985506998639299</v>
       </c>
       <c r="J26">
-        <v>0.3266837068537765</v>
+        <v>0.02613413862242421</v>
       </c>
       <c r="K26">
         <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>3.748098</v>
+        <v>0.22011</v>
       </c>
       <c r="N26">
-        <v>7.496195999999999</v>
+        <v>0.66033</v>
       </c>
       <c r="O26">
-        <v>0.3204615780062858</v>
+        <v>0.01985506998639299</v>
       </c>
       <c r="P26">
-        <v>0.2684443982247036</v>
+        <v>0.02613413862242421</v>
       </c>
       <c r="Q26">
-        <v>11.397346332464</v>
+        <v>0.0484484121</v>
       </c>
       <c r="R26">
-        <v>68.38407799478401</v>
+        <v>0.4360357089</v>
       </c>
       <c r="S26">
-        <v>0.08331703452451886</v>
+        <v>0.0003942238041645638</v>
       </c>
       <c r="T26">
-        <v>0.08769641109617753</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>3.040834666666667</v>
-      </c>
-      <c r="H27">
-        <v>9.122504000000001</v>
-      </c>
-      <c r="I27">
-        <v>0.25999071415321</v>
-      </c>
-      <c r="J27">
-        <v>0.3266837068537765</v>
-      </c>
-      <c r="K27">
-        <v>2</v>
-      </c>
-      <c r="L27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M27">
-        <v>0.8716406666666666</v>
-      </c>
-      <c r="N27">
-        <v>2.614922</v>
-      </c>
-      <c r="O27">
-        <v>0.07452509072453574</v>
-      </c>
-      <c r="P27">
-        <v>0.09364231707582599</v>
-      </c>
-      <c r="Q27">
-        <v>2.650515156076445</v>
-      </c>
-      <c r="R27">
-        <v>23.854636404688</v>
-      </c>
-      <c r="S27">
-        <v>0.01937583155980481</v>
-      </c>
-      <c r="T27">
-        <v>0.03059141926070753</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>3.040834666666667</v>
-      </c>
-      <c r="H28">
-        <v>9.122504000000001</v>
-      </c>
-      <c r="I28">
-        <v>0.25999071415321</v>
-      </c>
-      <c r="J28">
-        <v>0.3266837068537765</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M28">
-        <v>0.2322326666666667</v>
-      </c>
-      <c r="N28">
-        <v>0.696698</v>
-      </c>
-      <c r="O28">
-        <v>0.0198558433703195</v>
-      </c>
-      <c r="P28">
-        <v>0.02494927765420682</v>
-      </c>
-      <c r="Q28">
-        <v>0.7061811435324445</v>
-      </c>
-      <c r="R28">
-        <v>6.355630291792001</v>
-      </c>
-      <c r="S28">
-        <v>0.005162334897963647</v>
-      </c>
-      <c r="T28">
-        <v>0.008150522507400379</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>3.040834666666667</v>
-      </c>
-      <c r="H29">
-        <v>9.122504000000001</v>
-      </c>
-      <c r="I29">
-        <v>0.25999071415321</v>
-      </c>
-      <c r="J29">
-        <v>0.3266837068537765</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>3.415133</v>
-      </c>
-      <c r="N29">
-        <v>6.830266</v>
-      </c>
-      <c r="O29">
-        <v>0.2919931416631424</v>
-      </c>
-      <c r="P29">
-        <v>0.2445969457154874</v>
-      </c>
-      <c r="Q29">
-        <v>10.38485481767733</v>
-      </c>
-      <c r="R29">
-        <v>62.309128906064</v>
-      </c>
-      <c r="S29">
-        <v>0.07591550542883982</v>
-      </c>
-      <c r="T29">
-        <v>0.07990583691144737</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>3.040834666666667</v>
-      </c>
-      <c r="H30">
-        <v>9.122504000000001</v>
-      </c>
-      <c r="I30">
-        <v>0.25999071415321</v>
-      </c>
-      <c r="J30">
-        <v>0.3266837068537765</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>3.040834666666667</v>
-      </c>
-      <c r="N30">
-        <v>9.122504000000001</v>
-      </c>
-      <c r="O30">
-        <v>0.25999071415321</v>
-      </c>
-      <c r="P30">
-        <v>0.3266837068537765</v>
-      </c>
-      <c r="Q30">
-        <v>9.246675470001779</v>
-      </c>
-      <c r="R30">
-        <v>83.22007923001603</v>
-      </c>
-      <c r="S30">
-        <v>0.06759517144589616</v>
-      </c>
-      <c r="T30">
-        <v>0.1067222443237242</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>3.040834666666667</v>
-      </c>
-      <c r="H31">
-        <v>9.122504000000001</v>
-      </c>
-      <c r="I31">
-        <v>0.25999071415321</v>
-      </c>
-      <c r="J31">
-        <v>0.3266837068537765</v>
-      </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
-      <c r="L31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M31">
-        <v>0.3879966666666667</v>
-      </c>
-      <c r="N31">
-        <v>1.16399</v>
-      </c>
-      <c r="O31">
-        <v>0.03317363208250661</v>
-      </c>
-      <c r="P31">
-        <v>0.04168335447599993</v>
-      </c>
-      <c r="Q31">
-        <v>1.179833714551111</v>
-      </c>
-      <c r="R31">
-        <v>10.61850343096</v>
-      </c>
-      <c r="S31">
-        <v>0.008624836296186733</v>
-      </c>
-      <c r="T31">
-        <v>0.01361727275431962</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.3879966666666667</v>
-      </c>
-      <c r="H32">
-        <v>1.16399</v>
-      </c>
-      <c r="I32">
-        <v>0.03317363208250661</v>
-      </c>
-      <c r="J32">
-        <v>0.04168335447599993</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>3.748098</v>
-      </c>
-      <c r="N32">
-        <v>7.496195999999999</v>
-      </c>
-      <c r="O32">
-        <v>0.3204615780062858</v>
-      </c>
-      <c r="P32">
-        <v>0.2684443982247036</v>
-      </c>
-      <c r="Q32">
-        <v>1.45424953034</v>
-      </c>
-      <c r="R32">
-        <v>8.72549718204</v>
-      </c>
-      <c r="S32">
-        <v>0.01063087448536002</v>
-      </c>
-      <c r="T32">
-        <v>0.01118966300829681</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.3879966666666667</v>
-      </c>
-      <c r="H33">
-        <v>1.16399</v>
-      </c>
-      <c r="I33">
-        <v>0.03317363208250661</v>
-      </c>
-      <c r="J33">
-        <v>0.04168335447599993</v>
-      </c>
-      <c r="K33">
-        <v>2</v>
-      </c>
-      <c r="L33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M33">
-        <v>0.8716406666666666</v>
-      </c>
-      <c r="N33">
-        <v>2.614922</v>
-      </c>
-      <c r="O33">
-        <v>0.07452509072453574</v>
-      </c>
-      <c r="P33">
-        <v>0.09364231707582599</v>
-      </c>
-      <c r="Q33">
-        <v>0.3381936731977778</v>
-      </c>
-      <c r="R33">
-        <v>3.04374305878</v>
-      </c>
-      <c r="S33">
-        <v>0.002472267940611175</v>
-      </c>
-      <c r="T33">
-        <v>0.003903325896625636</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.3879966666666667</v>
-      </c>
-      <c r="H34">
-        <v>1.16399</v>
-      </c>
-      <c r="I34">
-        <v>0.03317363208250661</v>
-      </c>
-      <c r="J34">
-        <v>0.04168335447599993</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M34">
-        <v>0.2322326666666667</v>
-      </c>
-      <c r="N34">
-        <v>0.696698</v>
-      </c>
-      <c r="O34">
-        <v>0.0198558433703195</v>
-      </c>
-      <c r="P34">
-        <v>0.02494927765420682</v>
-      </c>
-      <c r="Q34">
-        <v>0.09010550055777779</v>
-      </c>
-      <c r="R34">
-        <v>0.8109495050200001</v>
-      </c>
-      <c r="S34">
-        <v>0.0006586904426548572</v>
-      </c>
-      <c r="T34">
-        <v>0.001039969584380447</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.3879966666666667</v>
-      </c>
-      <c r="H35">
-        <v>1.16399</v>
-      </c>
-      <c r="I35">
-        <v>0.03317363208250661</v>
-      </c>
-      <c r="J35">
-        <v>0.04168335447599993</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>3.415133</v>
-      </c>
-      <c r="N35">
-        <v>6.830266</v>
-      </c>
-      <c r="O35">
-        <v>0.2919931416631424</v>
-      </c>
-      <c r="P35">
-        <v>0.2445969457154874</v>
-      </c>
-      <c r="Q35">
-        <v>1.325060220223333</v>
-      </c>
-      <c r="R35">
-        <v>7.950361321340001</v>
-      </c>
-      <c r="S35">
-        <v>0.009686473052148321</v>
-      </c>
-      <c r="T35">
-        <v>0.01019562119200557</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.3879966666666667</v>
-      </c>
-      <c r="H36">
-        <v>1.16399</v>
-      </c>
-      <c r="I36">
-        <v>0.03317363208250661</v>
-      </c>
-      <c r="J36">
-        <v>0.04168335447599993</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>3.040834666666667</v>
-      </c>
-      <c r="N36">
-        <v>9.122504000000001</v>
-      </c>
-      <c r="O36">
-        <v>0.25999071415321</v>
-      </c>
-      <c r="P36">
-        <v>0.3266837068537765</v>
-      </c>
-      <c r="Q36">
-        <v>1.179833714551111</v>
-      </c>
-      <c r="R36">
-        <v>10.61850343096</v>
-      </c>
-      <c r="S36">
-        <v>0.008624836296186733</v>
-      </c>
-      <c r="T36">
-        <v>0.01361727275431962</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.3879966666666667</v>
-      </c>
-      <c r="H37">
-        <v>1.16399</v>
-      </c>
-      <c r="I37">
-        <v>0.03317363208250661</v>
-      </c>
-      <c r="J37">
-        <v>0.04168335447599993</v>
-      </c>
-      <c r="K37">
-        <v>2</v>
-      </c>
-      <c r="L37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M37">
-        <v>0.3879966666666667</v>
-      </c>
-      <c r="N37">
-        <v>1.16399</v>
-      </c>
-      <c r="O37">
-        <v>0.03317363208250661</v>
-      </c>
-      <c r="P37">
-        <v>0.04168335447599993</v>
-      </c>
-      <c r="Q37">
-        <v>0.1505414133444445</v>
-      </c>
-      <c r="R37">
-        <v>1.3548727201</v>
-      </c>
-      <c r="S37">
-        <v>0.001100489865545512</v>
-      </c>
-      <c r="T37">
-        <v>0.001737502040371864</v>
+        <v>0.0006829932015360848</v>
       </c>
     </row>
   </sheetData>
